--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
   <si>
     <t>true_query</t>
   </si>
@@ -49,9 +49,6 @@
     <t>The Beatles - Abbey Road</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>I'm in the mood for discovering 5 new artists, preferably in the indie rock genre.</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
     <t>pop</t>
   </si>
   <si>
+    <t>Brazil</t>
+  </si>
+  <si>
     <t>I need 12 songs in the hip-hop genre, similar to Eminem.</t>
   </si>
   <si>
@@ -157,6 +157,9 @@
     <t>alternative rock</t>
   </si>
   <si>
+    <t>Canada</t>
+  </si>
+  <si>
     <t>Recommend 8 albums with a blend of reggae and ska.</t>
   </si>
   <si>
@@ -178,7 +181,7 @@
     <t>I want to explore artists from the UK in the pop genre. Can you recommend 7?</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>UK</t>
   </si>
   <si>
     <t>Find 6 songs similar to Stairway to Heaven by Led Zeppelin.</t>
@@ -217,6 +220,9 @@
     <t>dancehall</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>Find 7 songs similar to Billie Jean by Michael Jackson.</t>
   </si>
   <si>
@@ -251,6 +257,9 @@
   </si>
   <si>
     <t>flamenco</t>
+  </si>
+  <si>
+    <t>Spain</t>
   </si>
   <si>
     <t>Find 7 songs similar to Hey Jude by The Beatles.</t>
@@ -408,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -421,9 +430,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -742,13 +748,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="85.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="85.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="6.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -790,54 +796,50 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -846,20 +848,20 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
@@ -868,16 +870,14 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -887,38 +887,38 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>12</v>
@@ -929,9 +929,7 @@
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -945,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -958,7 +956,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
@@ -969,9 +967,7 @@
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
@@ -979,13 +975,13 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -1009,9 +1005,7 @@
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -1019,13 +1013,13 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -1049,9 +1043,7 @@
       <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
@@ -1065,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
@@ -1078,7 +1070,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
@@ -1089,9 +1081,7 @@
       <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -1099,21 +1089,23 @@
         <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
@@ -1122,36 +1114,36 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -1163,40 +1155,38 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3">
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
@@ -1205,16 +1195,14 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
@@ -1223,17 +1211,17 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1242,36 +1230,36 @@
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
@@ -1283,36 +1271,36 @@
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3">
         <v>7</v>
@@ -1321,16 +1309,14 @@
         <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -1339,36 +1325,36 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3">
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
@@ -1380,16 +1366,14 @@
         <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
@@ -1398,37 +1382,39 @@
         <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="3">
         <v>7</v>
@@ -1437,16 +1423,14 @@
         <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
@@ -1455,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
@@ -1465,26 +1449,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>8</v>
@@ -1496,16 +1480,14 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
@@ -1514,39 +1496,39 @@
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="3">
         <v>7</v>
@@ -1555,16 +1537,14 @@
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
@@ -1573,36 +1553,36 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="3">
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>8</v>
@@ -1614,16 +1594,14 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -1632,39 +1610,39 @@
         <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="3">
         <v>7</v>
@@ -1673,16 +1651,14 @@
         <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>8</v>
@@ -1691,36 +1667,36 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>8</v>
@@ -1732,16 +1708,14 @@
         <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>8</v>
@@ -1750,11 +1724,11 @@
         <v>10</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G51" s="2"/>
     </row>
